--- a/public/templateVideoVimeo.xlsx
+++ b/public/templateVideoVimeo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/islam.eddassouli/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/islam.eddassouli/Desktop/VercelHomepageAPP/app/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17837A2B-A01D-644C-900C-9AA5888614F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1F7C68-7E8B-2141-BA54-C7862C48D2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{2C11EC37-260D-5D4B-80A7-92F6CE65B4D1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{2C11EC37-260D-5D4B-80A7-92F6CE65B4D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="117">
   <si>
     <t>SDW006118905143M1754V2</t>
   </si>
@@ -261,231 +261,6 @@
   </si>
   <si>
     <t>S74AM1478S78560001SV2</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888045452</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888045422</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888045391</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888045364</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888045346</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888045330</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888045315</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888045303</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888045282</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888045260</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888045235</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888045210</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888045198</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888045164</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888045145</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888045132</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888045109</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888045097</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888045081</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888045070</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888045058</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888045025</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888044994</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888044977</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888044956</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888044947</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888044931</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888044916</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888044903</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888044882</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888044859</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888044836</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888044819</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888044802</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888044778</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888044759</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888044740</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888044345</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888044716</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888044692</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888044666</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888044642</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888044617</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888044602</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888044586</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888044569</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888044548</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888044530</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888044517</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888044494</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888044461</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888044441</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888044417</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888044364</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888044224</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888044202</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888044193</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888044170</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888044148</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888044133</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888044118</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888044104</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888044091</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888044076</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888044051</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888044029</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888044010</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888043988</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888043973</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888043945</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888043914</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/888043904</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/887996323</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/887987733</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/manage/videos/887989954</t>
   </si>
   <si>
     <t>LINK</t>
@@ -675,15 +450,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -705,9 +485,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -745,7 +525,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -851,7 +631,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -993,7 +773,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1004,928 +784,928 @@
   <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="F10" sqref="F10:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="46.6640625" customWidth="1"/>
-    <col min="3" max="3" width="43" customWidth="1"/>
+    <col min="3" max="3" width="43" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>151</v>
+      <c r="A1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>150</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>75</v>
+      <c r="C2" s="4">
+        <v>888045452</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>76</v>
+      <c r="C3" s="4">
+        <v>888045422</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>77</v>
+      <c r="C4" s="4">
+        <v>888045391</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>78</v>
+      <c r="C5" s="4">
+        <v>888045364</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>79</v>
+      <c r="C6" s="4">
+        <v>888045346</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>80</v>
+      <c r="C7" s="4">
+        <v>888045330</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>81</v>
+      <c r="C8" s="4">
+        <v>888045315</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>82</v>
+      <c r="C9" s="4">
+        <v>888045303</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>83</v>
+      <c r="C10" s="4">
+        <v>888045282</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>84</v>
+      <c r="C11" s="4">
+        <v>888045260</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>85</v>
+      <c r="C12" s="4">
+        <v>888045235</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>86</v>
+      <c r="C13" s="4">
+        <v>888045210</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>159</v>
+        <v>84</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>87</v>
+      <c r="C14" s="4">
+        <v>888045198</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>159</v>
+        <v>84</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>88</v>
+      <c r="C15" s="4">
+        <v>888045164</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>89</v>
+      <c r="C16" s="4">
+        <v>888045145</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>90</v>
+      <c r="C17" s="4">
+        <v>888045132</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>161</v>
+        <v>86</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>91</v>
+      <c r="C18" s="4">
+        <v>888045109</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>161</v>
+        <v>86</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>92</v>
+      <c r="C19" s="4">
+        <v>888045097</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>162</v>
+        <v>87</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>93</v>
+      <c r="C20" s="4">
+        <v>888045081</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>162</v>
+        <v>87</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>94</v>
+      <c r="C21" s="4">
+        <v>888045070</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>163</v>
+        <v>88</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>95</v>
+      <c r="C22" s="4">
+        <v>888045058</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>163</v>
+        <v>88</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>96</v>
+      <c r="C23" s="4">
+        <v>888045025</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>164</v>
+        <v>89</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>97</v>
+      <c r="C24" s="4">
+        <v>888044994</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>164</v>
+        <v>89</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>98</v>
+      <c r="C25" s="4">
+        <v>888044977</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>99</v>
+      <c r="C26" s="4">
+        <v>888044956</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>100</v>
+      <c r="C27" s="4">
+        <v>888044947</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>101</v>
+      <c r="C28" s="4">
+        <v>888044931</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>102</v>
+      <c r="C29" s="4">
+        <v>888044916</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>167</v>
+        <v>92</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>103</v>
+      <c r="C30" s="4">
+        <v>888044903</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>167</v>
+        <v>92</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>104</v>
+      <c r="C31" s="4">
+        <v>888044882</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>168</v>
+        <v>93</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>105</v>
+      <c r="C32" s="4">
+        <v>888044859</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>168</v>
+        <v>93</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>106</v>
+      <c r="C33" s="4">
+        <v>888044836</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>169</v>
+        <v>94</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>107</v>
+      <c r="C34" s="4">
+        <v>888044819</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>169</v>
+        <v>94</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>108</v>
+      <c r="C35" s="4">
+        <v>888044802</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>109</v>
+      <c r="C36" s="4">
+        <v>888044778</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>110</v>
+      <c r="C37" s="4">
+        <v>888044759</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>111</v>
+      <c r="C38" s="4">
+        <v>888044740</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>179</v>
+        <v>104</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>112</v>
+      <c r="C39" s="4">
+        <v>888044345</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>113</v>
+      <c r="C40" s="4">
+        <v>888044716</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>172</v>
+        <v>97</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>114</v>
+      <c r="C41" s="4">
+        <v>888044692</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>172</v>
+        <v>97</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>115</v>
+      <c r="C42" s="4">
+        <v>888044666</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>173</v>
+        <v>98</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>116</v>
+      <c r="C43" s="4">
+        <v>888044642</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>173</v>
+        <v>98</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>117</v>
+      <c r="C44" s="4">
+        <v>888044617</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>118</v>
+      <c r="C45" s="4">
+        <v>888044602</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>119</v>
+      <c r="C46" s="4">
+        <v>888044586</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>120</v>
+      <c r="C47" s="4">
+        <v>888044569</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>121</v>
+      <c r="C48" s="4">
+        <v>888044548</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>176</v>
+        <v>101</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>122</v>
+      <c r="C49" s="4">
+        <v>888044530</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>176</v>
+        <v>101</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>123</v>
+      <c r="C50" s="4">
+        <v>888044517</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>177</v>
+        <v>102</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>124</v>
+      <c r="C51" s="4">
+        <v>888044494</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>177</v>
+        <v>102</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>125</v>
+      <c r="C52" s="4">
+        <v>888044461</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>126</v>
+      <c r="C53" s="4">
+        <v>888044441</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>127</v>
+      <c r="C54" s="4">
+        <v>888044417</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>179</v>
+        <v>104</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>128</v>
+      <c r="C55" s="4">
+        <v>888044364</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>129</v>
+      <c r="C56" s="4">
+        <v>888044224</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>130</v>
+      <c r="C57" s="4">
+        <v>888044202</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>181</v>
+        <v>106</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>131</v>
+      <c r="C58" s="4">
+        <v>888044193</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>181</v>
+        <v>106</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>132</v>
+      <c r="C59" s="4">
+        <v>888044170</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>182</v>
+        <v>107</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>133</v>
+      <c r="C60" s="4">
+        <v>888044148</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>182</v>
+        <v>107</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>134</v>
+      <c r="C61" s="4">
+        <v>888044133</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>183</v>
+        <v>108</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>135</v>
+      <c r="C62" s="4">
+        <v>888044118</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>183</v>
+        <v>108</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>136</v>
+      <c r="C63" s="4">
+        <v>888044104</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>184</v>
+        <v>109</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>137</v>
+      <c r="C64" s="4">
+        <v>888044091</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>184</v>
+        <v>109</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>138</v>
+      <c r="C65" s="4">
+        <v>888044076</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>139</v>
+      <c r="C66" s="4">
+        <v>888044051</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>140</v>
+      <c r="C67" s="4">
+        <v>888044029</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>186</v>
+        <v>111</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>141</v>
+      <c r="C68" s="4">
+        <v>888044010</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>186</v>
+        <v>111</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>142</v>
+      <c r="C69" s="4">
+        <v>888043988</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>143</v>
+      <c r="C70" s="4">
+        <v>888043973</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>144</v>
+      <c r="C71" s="4">
+        <v>888043945</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>188</v>
+        <v>113</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>145</v>
+      <c r="C72" s="4">
+        <v>888043914</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>188</v>
+        <v>113</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>146</v>
+      <c r="C73" s="4">
+        <v>888043904</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>189</v>
+        <v>114</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>147</v>
+      <c r="C74" s="4">
+        <v>887996323</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>191</v>
+        <v>116</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>148</v>
+      <c r="C75" s="4">
+        <v>887987733</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>190</v>
+        <v>115</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>149</v>
+      <c r="C76" s="4">
+        <v>887989954</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{A8274156-8C79-204C-85E3-2B7BE8B7FCBF}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{9AB3762C-776B-564C-B18D-5257A576A2FF}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{BB1D34BB-1DDE-0E43-B9F1-3BE3442471C6}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{ABDFE6D8-659A-974B-9A2C-70BF8EB0D7F9}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{6C42FAE6-56B6-BD4C-AAF9-558C8D8DEADB}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{3D04F435-2AA2-3B4E-90D9-DD2685D47F73}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{08403D21-BB35-354F-9D03-7E68AE505DDE}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{35C666CA-311B-2D48-A349-C6BC25DE34F2}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{4EC72B85-6030-7149-9D1E-5208BE656E8C}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{750806DA-DE25-AA45-9605-A87357EBF97F}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{C6558977-AAFF-FF44-A902-A7C450ABA28E}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{CF44A13C-F935-4F46-BF73-DA5FE55EA79C}"/>
-    <hyperlink ref="C14" r:id="rId13" xr:uid="{47A2F7E8-B062-BF45-9412-8DD12D1358C9}"/>
-    <hyperlink ref="C15" r:id="rId14" xr:uid="{A1FD4292-A99C-B940-B251-D8201834C05D}"/>
-    <hyperlink ref="C16" r:id="rId15" xr:uid="{55D35D63-54A5-1447-B838-3B22C7C49875}"/>
-    <hyperlink ref="C17" r:id="rId16" xr:uid="{E490B744-6575-A64E-9101-DC09B1CCF5BD}"/>
-    <hyperlink ref="C18" r:id="rId17" xr:uid="{724A6FE4-1D9F-A748-AA1F-83346FE6C8EB}"/>
-    <hyperlink ref="C19" r:id="rId18" xr:uid="{1B7EFAEB-53CF-4D42-B1B7-3CA98E75ABDB}"/>
-    <hyperlink ref="C20" r:id="rId19" xr:uid="{438FBF8C-145E-7942-B251-EFAAE113A338}"/>
-    <hyperlink ref="C21" r:id="rId20" xr:uid="{E7142D0B-7BD5-9E49-8599-03D3F7AF9EAB}"/>
-    <hyperlink ref="C22" r:id="rId21" xr:uid="{442EEDDB-E178-AE49-B458-7A479E161EF6}"/>
-    <hyperlink ref="C23" r:id="rId22" xr:uid="{1E8968C2-6E69-3048-9A8D-223B833B269C}"/>
-    <hyperlink ref="C24" r:id="rId23" xr:uid="{2FA0335B-2CEB-2F40-B0F1-201EF1C66818}"/>
-    <hyperlink ref="C25" r:id="rId24" xr:uid="{6871C530-7E53-E548-ACC7-52ADBEB1DA58}"/>
-    <hyperlink ref="C26" r:id="rId25" xr:uid="{79007B28-3CB3-944A-A889-F88829466E9D}"/>
-    <hyperlink ref="C27" r:id="rId26" xr:uid="{B95F6AC8-E1F2-1C48-830D-53EDFBFC01FC}"/>
-    <hyperlink ref="C28" r:id="rId27" xr:uid="{6AAF71EA-CEBA-5B45-9F18-5084BEC6FE09}"/>
-    <hyperlink ref="C29" r:id="rId28" xr:uid="{355EF1F4-40BE-B24F-A2B5-7CA49A190FE6}"/>
-    <hyperlink ref="C30" r:id="rId29" xr:uid="{26F57B17-472D-434B-BCAD-8210ADCACB24}"/>
-    <hyperlink ref="C31" r:id="rId30" xr:uid="{CDAEF4C4-E77F-2245-9C77-9BD9F2536DCA}"/>
-    <hyperlink ref="C32" r:id="rId31" xr:uid="{DF24780E-6359-BD45-BE1A-DF675D26FE7A}"/>
-    <hyperlink ref="C33" r:id="rId32" xr:uid="{BB58D91D-D57F-EC4A-909D-0430DAB982BF}"/>
-    <hyperlink ref="C34" r:id="rId33" xr:uid="{EABE2DCB-2A74-8649-92EB-C28CBEFF879B}"/>
-    <hyperlink ref="C35" r:id="rId34" xr:uid="{C794A905-DB5A-0448-BBB1-45AFAD2F164D}"/>
-    <hyperlink ref="C36" r:id="rId35" xr:uid="{DCBA6571-0F44-654E-855D-5593DD7D4403}"/>
-    <hyperlink ref="C37" r:id="rId36" xr:uid="{75202DDB-6A4B-BE4A-8EFE-3EBE82428000}"/>
-    <hyperlink ref="C38" r:id="rId37" xr:uid="{D90E743F-EA44-5046-9DC4-E4D07704F5CD}"/>
-    <hyperlink ref="C39" r:id="rId38" xr:uid="{48C9BAD0-C0AD-EA44-BEAE-27028EAC6004}"/>
-    <hyperlink ref="C40" r:id="rId39" xr:uid="{B4602FA6-AD46-6647-9CBB-56E44A05B76C}"/>
-    <hyperlink ref="C41" r:id="rId40" xr:uid="{A8C6AE7F-BF63-6247-BD30-154647AD1B22}"/>
-    <hyperlink ref="C42" r:id="rId41" xr:uid="{64922488-E218-A440-B507-6AACFE043946}"/>
-    <hyperlink ref="C43" r:id="rId42" xr:uid="{BAB96F73-0D63-D14B-9A98-192BB6CAAE91}"/>
-    <hyperlink ref="C44" r:id="rId43" xr:uid="{840893AD-9272-964E-AA5A-CB6D674F5309}"/>
-    <hyperlink ref="C45" r:id="rId44" xr:uid="{5DBB8F68-3094-764A-A2B6-4D011C784CA7}"/>
-    <hyperlink ref="C46" r:id="rId45" xr:uid="{B584838C-BECB-064F-A2E3-067EE453439A}"/>
-    <hyperlink ref="C47" r:id="rId46" xr:uid="{7D796918-23F0-F54F-ABE3-6FA1AECE5B3E}"/>
-    <hyperlink ref="C48" r:id="rId47" xr:uid="{475CCCA7-2197-A34B-B280-E8D25CF30DB6}"/>
-    <hyperlink ref="C49" r:id="rId48" xr:uid="{9D659EFB-8C99-AB49-9402-52D7A6F2AE39}"/>
-    <hyperlink ref="C50" r:id="rId49" xr:uid="{385EA5E2-8F35-2E46-9877-83B941B1BC54}"/>
-    <hyperlink ref="C51" r:id="rId50" xr:uid="{72B6CF00-38B1-D749-8E8A-36341B7B8F0F}"/>
-    <hyperlink ref="C52" r:id="rId51" xr:uid="{02A22190-97BF-3147-8048-8DC5232CCD7F}"/>
-    <hyperlink ref="C53" r:id="rId52" xr:uid="{C6CC5D66-F986-8340-969A-5E412AEBC3AF}"/>
-    <hyperlink ref="C54" r:id="rId53" xr:uid="{D76B130E-8538-2A4D-AE7B-81BF3EEE4E43}"/>
-    <hyperlink ref="C55" r:id="rId54" xr:uid="{EABA1613-D813-B046-915A-0F27C0200C13}"/>
-    <hyperlink ref="C56" r:id="rId55" xr:uid="{F327386F-C33C-9F47-953D-A55793B0CE8C}"/>
-    <hyperlink ref="C57" r:id="rId56" xr:uid="{008DA7D9-0A2C-844D-915F-1DAE998EF50E}"/>
-    <hyperlink ref="C58" r:id="rId57" xr:uid="{FC4B593A-EAFA-A743-8D8C-22BD9C7453F4}"/>
-    <hyperlink ref="C59" r:id="rId58" xr:uid="{BA873EEC-AB52-FC4B-BD78-0033054514E4}"/>
-    <hyperlink ref="C60" r:id="rId59" xr:uid="{0F105D2F-B2AD-B74B-804D-1C1B1B48A576}"/>
-    <hyperlink ref="C61" r:id="rId60" xr:uid="{63D59DB2-6FC8-B249-8D7C-21F82B386C55}"/>
-    <hyperlink ref="C62" r:id="rId61" xr:uid="{E609926F-8638-184F-8124-904B44574CA3}"/>
-    <hyperlink ref="C63" r:id="rId62" xr:uid="{7B029793-9728-AE42-BF3C-9858423909F0}"/>
-    <hyperlink ref="C64" r:id="rId63" xr:uid="{DC4D95B5-23CE-FB49-98F7-6CC562C307BF}"/>
-    <hyperlink ref="C65" r:id="rId64" xr:uid="{5E179BBB-72A3-C249-89E1-8775D1153BAE}"/>
-    <hyperlink ref="C66" r:id="rId65" xr:uid="{2F069A07-92D6-3D48-9C4A-5429CE60C486}"/>
-    <hyperlink ref="C67" r:id="rId66" xr:uid="{878E7965-B2CB-E64F-9E81-05AC711BB202}"/>
-    <hyperlink ref="C68" r:id="rId67" xr:uid="{16C66A6A-4A25-8C4E-8E5F-B289ECDE4256}"/>
-    <hyperlink ref="C69" r:id="rId68" xr:uid="{D57F4E2A-756E-2648-B5DA-A72FBC3400ED}"/>
-    <hyperlink ref="C70" r:id="rId69" xr:uid="{F484BEBA-F4A4-4A47-B430-FB39B837838D}"/>
-    <hyperlink ref="C71" r:id="rId70" xr:uid="{08E75A67-7922-E845-912B-64DD56E19496}"/>
-    <hyperlink ref="C72" r:id="rId71" xr:uid="{B6ADE5BB-5FC5-464A-8552-53578C32D12C}"/>
-    <hyperlink ref="C73" r:id="rId72" xr:uid="{13760277-11C4-EE47-8B25-D8E43F0BED8F}"/>
-    <hyperlink ref="C74" r:id="rId73" xr:uid="{4E039D1E-E6C1-AF4C-987C-E9A89F496781}"/>
-    <hyperlink ref="C75" r:id="rId74" xr:uid="{E5564411-7551-054B-A8CD-DE912ED6391F}"/>
-    <hyperlink ref="C76" r:id="rId75" xr:uid="{CE1288FE-2721-C048-A8CF-EF9D1B2D8468}"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://vimeo.com/manage/videos/888045452" xr:uid="{A8274156-8C79-204C-85E3-2B7BE8B7FCBF}"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://vimeo.com/manage/videos/888045422" xr:uid="{9AB3762C-776B-564C-B18D-5257A576A2FF}"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://vimeo.com/manage/videos/888045391" xr:uid="{BB1D34BB-1DDE-0E43-B9F1-3BE3442471C6}"/>
+    <hyperlink ref="C5" r:id="rId4" display="https://vimeo.com/manage/videos/888045364" xr:uid="{ABDFE6D8-659A-974B-9A2C-70BF8EB0D7F9}"/>
+    <hyperlink ref="C6" r:id="rId5" display="https://vimeo.com/manage/videos/888045346" xr:uid="{6C42FAE6-56B6-BD4C-AAF9-558C8D8DEADB}"/>
+    <hyperlink ref="C7" r:id="rId6" display="https://vimeo.com/manage/videos/888045330" xr:uid="{3D04F435-2AA2-3B4E-90D9-DD2685D47F73}"/>
+    <hyperlink ref="C8" r:id="rId7" display="https://vimeo.com/manage/videos/888045315" xr:uid="{08403D21-BB35-354F-9D03-7E68AE505DDE}"/>
+    <hyperlink ref="C9" r:id="rId8" display="https://vimeo.com/manage/videos/888045303" xr:uid="{35C666CA-311B-2D48-A349-C6BC25DE34F2}"/>
+    <hyperlink ref="C10" r:id="rId9" display="https://vimeo.com/manage/videos/888045282" xr:uid="{4EC72B85-6030-7149-9D1E-5208BE656E8C}"/>
+    <hyperlink ref="C11" r:id="rId10" display="https://vimeo.com/manage/videos/888045260" xr:uid="{750806DA-DE25-AA45-9605-A87357EBF97F}"/>
+    <hyperlink ref="C12" r:id="rId11" display="https://vimeo.com/manage/videos/888045235" xr:uid="{C6558977-AAFF-FF44-A902-A7C450ABA28E}"/>
+    <hyperlink ref="C13" r:id="rId12" display="https://vimeo.com/manage/videos/888045210" xr:uid="{CF44A13C-F935-4F46-BF73-DA5FE55EA79C}"/>
+    <hyperlink ref="C14" r:id="rId13" display="https://vimeo.com/manage/videos/888045198" xr:uid="{47A2F7E8-B062-BF45-9412-8DD12D1358C9}"/>
+    <hyperlink ref="C15" r:id="rId14" display="https://vimeo.com/manage/videos/888045164" xr:uid="{A1FD4292-A99C-B940-B251-D8201834C05D}"/>
+    <hyperlink ref="C16" r:id="rId15" display="https://vimeo.com/manage/videos/888045145" xr:uid="{55D35D63-54A5-1447-B838-3B22C7C49875}"/>
+    <hyperlink ref="C17" r:id="rId16" display="https://vimeo.com/manage/videos/888045132" xr:uid="{E490B744-6575-A64E-9101-DC09B1CCF5BD}"/>
+    <hyperlink ref="C18" r:id="rId17" display="https://vimeo.com/manage/videos/888045109" xr:uid="{724A6FE4-1D9F-A748-AA1F-83346FE6C8EB}"/>
+    <hyperlink ref="C19" r:id="rId18" display="https://vimeo.com/manage/videos/888045097" xr:uid="{1B7EFAEB-53CF-4D42-B1B7-3CA98E75ABDB}"/>
+    <hyperlink ref="C20" r:id="rId19" display="https://vimeo.com/manage/videos/888045081" xr:uid="{438FBF8C-145E-7942-B251-EFAAE113A338}"/>
+    <hyperlink ref="C21" r:id="rId20" display="https://vimeo.com/manage/videos/888045070" xr:uid="{E7142D0B-7BD5-9E49-8599-03D3F7AF9EAB}"/>
+    <hyperlink ref="C22" r:id="rId21" display="https://vimeo.com/manage/videos/888045058" xr:uid="{442EEDDB-E178-AE49-B458-7A479E161EF6}"/>
+    <hyperlink ref="C23" r:id="rId22" display="https://vimeo.com/manage/videos/888045025" xr:uid="{1E8968C2-6E69-3048-9A8D-223B833B269C}"/>
+    <hyperlink ref="C24" r:id="rId23" display="https://vimeo.com/manage/videos/888044994" xr:uid="{2FA0335B-2CEB-2F40-B0F1-201EF1C66818}"/>
+    <hyperlink ref="C25" r:id="rId24" display="https://vimeo.com/manage/videos/888044977" xr:uid="{6871C530-7E53-E548-ACC7-52ADBEB1DA58}"/>
+    <hyperlink ref="C26" r:id="rId25" display="https://vimeo.com/manage/videos/888044956" xr:uid="{79007B28-3CB3-944A-A889-F88829466E9D}"/>
+    <hyperlink ref="C27" r:id="rId26" display="https://vimeo.com/manage/videos/888044947" xr:uid="{B95F6AC8-E1F2-1C48-830D-53EDFBFC01FC}"/>
+    <hyperlink ref="C28" r:id="rId27" display="https://vimeo.com/manage/videos/888044931" xr:uid="{6AAF71EA-CEBA-5B45-9F18-5084BEC6FE09}"/>
+    <hyperlink ref="C29" r:id="rId28" display="https://vimeo.com/manage/videos/888044916" xr:uid="{355EF1F4-40BE-B24F-A2B5-7CA49A190FE6}"/>
+    <hyperlink ref="C30" r:id="rId29" display="https://vimeo.com/manage/videos/888044903" xr:uid="{26F57B17-472D-434B-BCAD-8210ADCACB24}"/>
+    <hyperlink ref="C31" r:id="rId30" display="https://vimeo.com/manage/videos/888044882" xr:uid="{CDAEF4C4-E77F-2245-9C77-9BD9F2536DCA}"/>
+    <hyperlink ref="C32" r:id="rId31" display="https://vimeo.com/manage/videos/888044859" xr:uid="{DF24780E-6359-BD45-BE1A-DF675D26FE7A}"/>
+    <hyperlink ref="C33" r:id="rId32" display="https://vimeo.com/manage/videos/888044836" xr:uid="{BB58D91D-D57F-EC4A-909D-0430DAB982BF}"/>
+    <hyperlink ref="C34" r:id="rId33" display="https://vimeo.com/manage/videos/888044819" xr:uid="{EABE2DCB-2A74-8649-92EB-C28CBEFF879B}"/>
+    <hyperlink ref="C35" r:id="rId34" display="https://vimeo.com/manage/videos/888044802" xr:uid="{C794A905-DB5A-0448-BBB1-45AFAD2F164D}"/>
+    <hyperlink ref="C36" r:id="rId35" display="https://vimeo.com/manage/videos/888044778" xr:uid="{DCBA6571-0F44-654E-855D-5593DD7D4403}"/>
+    <hyperlink ref="C37" r:id="rId36" display="https://vimeo.com/manage/videos/888044759" xr:uid="{75202DDB-6A4B-BE4A-8EFE-3EBE82428000}"/>
+    <hyperlink ref="C38" r:id="rId37" display="https://vimeo.com/manage/videos/888044740" xr:uid="{D90E743F-EA44-5046-9DC4-E4D07704F5CD}"/>
+    <hyperlink ref="C39" r:id="rId38" display="https://vimeo.com/manage/videos/888044345" xr:uid="{48C9BAD0-C0AD-EA44-BEAE-27028EAC6004}"/>
+    <hyperlink ref="C40" r:id="rId39" display="https://vimeo.com/manage/videos/888044716" xr:uid="{B4602FA6-AD46-6647-9CBB-56E44A05B76C}"/>
+    <hyperlink ref="C41" r:id="rId40" display="https://vimeo.com/manage/videos/888044692" xr:uid="{A8C6AE7F-BF63-6247-BD30-154647AD1B22}"/>
+    <hyperlink ref="C42" r:id="rId41" display="https://vimeo.com/manage/videos/888044666" xr:uid="{64922488-E218-A440-B507-6AACFE043946}"/>
+    <hyperlink ref="C43" r:id="rId42" display="https://vimeo.com/manage/videos/888044642" xr:uid="{BAB96F73-0D63-D14B-9A98-192BB6CAAE91}"/>
+    <hyperlink ref="C44" r:id="rId43" display="https://vimeo.com/manage/videos/888044617" xr:uid="{840893AD-9272-964E-AA5A-CB6D674F5309}"/>
+    <hyperlink ref="C45" r:id="rId44" display="https://vimeo.com/manage/videos/888044602" xr:uid="{5DBB8F68-3094-764A-A2B6-4D011C784CA7}"/>
+    <hyperlink ref="C46" r:id="rId45" display="https://vimeo.com/manage/videos/888044586" xr:uid="{B584838C-BECB-064F-A2E3-067EE453439A}"/>
+    <hyperlink ref="C47" r:id="rId46" display="https://vimeo.com/manage/videos/888044569" xr:uid="{7D796918-23F0-F54F-ABE3-6FA1AECE5B3E}"/>
+    <hyperlink ref="C48" r:id="rId47" display="https://vimeo.com/manage/videos/888044548" xr:uid="{475CCCA7-2197-A34B-B280-E8D25CF30DB6}"/>
+    <hyperlink ref="C49" r:id="rId48" display="https://vimeo.com/manage/videos/888044530" xr:uid="{9D659EFB-8C99-AB49-9402-52D7A6F2AE39}"/>
+    <hyperlink ref="C50" r:id="rId49" display="https://vimeo.com/manage/videos/888044517" xr:uid="{385EA5E2-8F35-2E46-9877-83B941B1BC54}"/>
+    <hyperlink ref="C51" r:id="rId50" display="https://vimeo.com/manage/videos/888044494" xr:uid="{72B6CF00-38B1-D749-8E8A-36341B7B8F0F}"/>
+    <hyperlink ref="C52" r:id="rId51" display="https://vimeo.com/manage/videos/888044461" xr:uid="{02A22190-97BF-3147-8048-8DC5232CCD7F}"/>
+    <hyperlink ref="C53" r:id="rId52" display="https://vimeo.com/manage/videos/888044441" xr:uid="{C6CC5D66-F986-8340-969A-5E412AEBC3AF}"/>
+    <hyperlink ref="C54" r:id="rId53" display="https://vimeo.com/manage/videos/888044417" xr:uid="{D76B130E-8538-2A4D-AE7B-81BF3EEE4E43}"/>
+    <hyperlink ref="C55" r:id="rId54" display="https://vimeo.com/manage/videos/888044364" xr:uid="{EABA1613-D813-B046-915A-0F27C0200C13}"/>
+    <hyperlink ref="C56" r:id="rId55" display="https://vimeo.com/manage/videos/888044224" xr:uid="{F327386F-C33C-9F47-953D-A55793B0CE8C}"/>
+    <hyperlink ref="C57" r:id="rId56" display="https://vimeo.com/manage/videos/888044202" xr:uid="{008DA7D9-0A2C-844D-915F-1DAE998EF50E}"/>
+    <hyperlink ref="C58" r:id="rId57" display="https://vimeo.com/manage/videos/888044193" xr:uid="{FC4B593A-EAFA-A743-8D8C-22BD9C7453F4}"/>
+    <hyperlink ref="C59" r:id="rId58" display="https://vimeo.com/manage/videos/888044170" xr:uid="{BA873EEC-AB52-FC4B-BD78-0033054514E4}"/>
+    <hyperlink ref="C60" r:id="rId59" display="https://vimeo.com/manage/videos/888044148" xr:uid="{0F105D2F-B2AD-B74B-804D-1C1B1B48A576}"/>
+    <hyperlink ref="C61" r:id="rId60" display="https://vimeo.com/manage/videos/888044133" xr:uid="{63D59DB2-6FC8-B249-8D7C-21F82B386C55}"/>
+    <hyperlink ref="C62" r:id="rId61" display="https://vimeo.com/manage/videos/888044118" xr:uid="{E609926F-8638-184F-8124-904B44574CA3}"/>
+    <hyperlink ref="C63" r:id="rId62" display="https://vimeo.com/manage/videos/888044104" xr:uid="{7B029793-9728-AE42-BF3C-9858423909F0}"/>
+    <hyperlink ref="C64" r:id="rId63" display="https://vimeo.com/manage/videos/888044091" xr:uid="{DC4D95B5-23CE-FB49-98F7-6CC562C307BF}"/>
+    <hyperlink ref="C65" r:id="rId64" display="https://vimeo.com/manage/videos/888044076" xr:uid="{5E179BBB-72A3-C249-89E1-8775D1153BAE}"/>
+    <hyperlink ref="C66" r:id="rId65" display="https://vimeo.com/manage/videos/888044051" xr:uid="{2F069A07-92D6-3D48-9C4A-5429CE60C486}"/>
+    <hyperlink ref="C67" r:id="rId66" display="https://vimeo.com/manage/videos/888044029" xr:uid="{878E7965-B2CB-E64F-9E81-05AC711BB202}"/>
+    <hyperlink ref="C68" r:id="rId67" display="https://vimeo.com/manage/videos/888044010" xr:uid="{16C66A6A-4A25-8C4E-8E5F-B289ECDE4256}"/>
+    <hyperlink ref="C69" r:id="rId68" display="https://vimeo.com/manage/videos/888043988" xr:uid="{D57F4E2A-756E-2648-B5DA-A72FBC3400ED}"/>
+    <hyperlink ref="C70" r:id="rId69" display="https://vimeo.com/manage/videos/888043973" xr:uid="{F484BEBA-F4A4-4A47-B430-FB39B837838D}"/>
+    <hyperlink ref="C71" r:id="rId70" display="https://vimeo.com/manage/videos/888043945" xr:uid="{08E75A67-7922-E845-912B-64DD56E19496}"/>
+    <hyperlink ref="C72" r:id="rId71" display="https://vimeo.com/manage/videos/888043914" xr:uid="{B6ADE5BB-5FC5-464A-8552-53578C32D12C}"/>
+    <hyperlink ref="C73" r:id="rId72" display="https://vimeo.com/manage/videos/888043904" xr:uid="{13760277-11C4-EE47-8B25-D8E43F0BED8F}"/>
+    <hyperlink ref="C74" r:id="rId73" display="https://vimeo.com/manage/videos/887996323" xr:uid="{4E039D1E-E6C1-AF4C-987C-E9A89F496781}"/>
+    <hyperlink ref="C75" r:id="rId74" display="https://vimeo.com/manage/videos/887987733" xr:uid="{E5564411-7551-054B-A8CD-DE912ED6391F}"/>
+    <hyperlink ref="C76" r:id="rId75" display="https://vimeo.com/manage/videos/887989954" xr:uid="{CE1288FE-2721-C048-A8CF-EF9D1B2D8468}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
